--- a/chi phí.xlsx
+++ b/chi phí.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81642B-DA35-4760-8D42-86D0987ED026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ACB321-9A28-4F70-923A-15FC6790CC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{127F8E77-AC74-49FA-BBDF-B4DA3A6E85CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Tiền phòng</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Tiền xe 2 chiều</t>
   </si>
   <si>
-    <t>Tiền mua đồ vặt</t>
-  </si>
-  <si>
     <t>Checkin 10h</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>2 tiếng phục vụ trực tiếp</t>
   </si>
   <si>
-    <t>Anh Bắc ủng hộ</t>
-  </si>
-  <si>
     <t>Quỹ team</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
   </si>
   <si>
     <t>Nước ngọt + nước lọc + hoa quả</t>
+  </si>
+  <si>
+    <t>Đồ ăn vặt, bánh kẹo</t>
   </si>
 </sst>
 </file>
@@ -206,23 +203,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207544</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>378916</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375B2301-9D28-CA60-AEED-3BE5DB7D491F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398E3D1D-2269-54F4-BC58-F7FFA784074A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -231,7 +228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -244,8 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8743950" y="190500"/>
-          <a:ext cx="4646116" cy="10058400"/>
+          <a:off x="11999494" y="133350"/>
+          <a:ext cx="6821905" cy="5400675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -256,23 +253,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398E3D1D-2269-54F4-BC58-F7FFA784074A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F353FD-AA60-6D20-9A0C-A2FDB15F06E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -294,8 +291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="381000"/>
-          <a:ext cx="7772400" cy="5829300"/>
+          <a:off x="7820026" y="104774"/>
+          <a:ext cx="4129088" cy="5505451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -606,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21747ED-9059-47EF-88E4-06ED692831D2}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,19 +618,19 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -675,7 +672,7 @@
         <v>1500000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -696,7 +693,7 @@
         <v>5000000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -717,7 +714,7 @@
         <v>9000000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -738,7 +735,7 @@
         <v>600000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -759,7 +756,7 @@
         <v>800000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -786,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>900000</v>
@@ -843,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>1500000</v>
@@ -871,7 +868,7 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
@@ -891,12 +888,8 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2000000</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -904,7 +897,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
         <v>18000000</v>
@@ -916,11 +909,11 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3">
         <f>(F15-D17-D18)/25</f>
-        <v>590000</v>
+        <v>670000</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
